--- a/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
+++ b/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\OneDrive_2023-05-05\Atividade versão 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E52E53-3387-448D-8FDC-FDCDD50666AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B04E4F-521E-4906-B136-BACBDF78FF18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,15 +108,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -484,7 +492,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>imprimirTodasInformcoes() </a:t>
+            <a:t>mostrarInformacoesDoComputador() </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1200">
             <a:effectLst/>
@@ -639,13 +647,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -660,8 +668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800098" y="714375"/>
-          <a:ext cx="5114927" cy="3400425"/>
+          <a:off x="800098" y="714376"/>
+          <a:ext cx="5114927" cy="2438399"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -797,6 +805,21 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pegarComputadoresDaInformatica() : ArrayList&lt;Computador&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -824,68 +847,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>pegarComputador(String id)  :  Computador</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pegarTodosComputadores() : ArrayList&lt;Computador&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>alugarComputador</a:t>
           </a:r>
           <a:r>
@@ -1039,120 +1000,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>imprimirSolicitacoesComputador()</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>imprimirSolicitacoesManutencao()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>contarComputadores()  :  int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>contarSolicitacoesComputador</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>()  :  int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>contarSolicitacoesManutencao</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>()  :  int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>contarEstoque()  :  int</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="pt-BR" sz="1100">
@@ -1429,7 +1278,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200"/>
-            <a:t>pegarComputador (String id)  :  Computador</a:t>
+            <a:t>pegarComputadorDoEstoque (String id)  :  Computador</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1440,14 +1289,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1464,9 +1313,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5915025" y="2147888"/>
-          <a:ext cx="6000749" cy="266700"/>
+        <a:xfrm>
+          <a:off x="5915025" y="1933576"/>
+          <a:ext cx="6000749" cy="214312"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1497,15 +1346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>309561</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>571498</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1523,8 +1372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4391024" y="3081337"/>
-          <a:ext cx="1243013" cy="3309937"/>
+          <a:off x="3910011" y="2600325"/>
+          <a:ext cx="2205038" cy="3309937"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1908,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CFBEE9-8D85-4DD3-A9B7-5D0074A72ED7}">
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,15 +1770,15 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="2:29" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,20 +1826,18 @@
     <row r="16" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="Q17" s="3"/>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
     </row>
-    <row r="18" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J18" s="3"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
-    <row r="19" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J19" s="3"/>
-    </row>
-    <row r="23" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="V23" s="2"/>
     </row>
-    <row r="25" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="Q25" s="3"/>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
+++ b/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBerto1\..a\BERTOTI\Atividade versão 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B04E4F-521E-4906-B136-BACBDF78FF18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDEE806-765A-4CDC-AFBF-2AE43C24007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,8 +121,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,15 +1288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>425451</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>44452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:rowOff>22226</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1308,14 +1308,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="1933576"/>
-          <a:ext cx="6000749" cy="214312"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6169026" y="2016127"/>
+          <a:ext cx="6292849" cy="196849"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1346,15 +1346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309561</xdr:colOff>
+      <xdr:colOff>307974</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1366,14 +1366,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3910011" y="2600325"/>
-          <a:ext cx="2205038" cy="3309937"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3498849" y="3292475"/>
+          <a:ext cx="3454400" cy="2120900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1758,18 +1758,18 @@
   <dimension ref="B1:AC25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="9" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:29" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1780,8 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:29" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1789,7 +1789,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1797,7 +1797,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1806,37 +1806,37 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:29" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R16" s="2"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="V23" s="2"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>
     </row>
   </sheetData>

--- a/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
+++ b/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBerto1\..a\BERTOTI\Atividade versão 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDEE806-765A-4CDC-AFBF-2AE43C24007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F498C-2619-4D58-96FF-9A956F33B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -533,6 +533,61 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setNome(String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -544,7 +599,62 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>setNome</a:t>
+            <a:t>getMarca()  :  String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setMarca(String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> marca</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -559,7 +669,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>getMarca()  :  String</a:t>
+            <a:t>getRam()  :  String</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -574,7 +684,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>setMarca</a:t>
+            <a:t>setRam(String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ram</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -589,7 +723,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>getRam()  :  String</a:t>
+            <a:t>getSsd()  :  String</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -604,37 +738,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>setRam</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>getSsd()  :  String</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>setSsd</a:t>
+            <a:t>setSsd(String ssd)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1200"/>
         </a:p>
@@ -652,8 +756,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -668,8 +772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800098" y="714376"/>
-          <a:ext cx="5114927" cy="2438399"/>
+          <a:off x="831848" y="733426"/>
+          <a:ext cx="5368927" cy="3146424"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -709,10 +813,38 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>listaDeComputadores</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200"/>
-            <a:t>computadores:</a:t>
+            <a:t>:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
@@ -722,6 +854,93 @@
             <a:rPr lang="pt-BR" sz="1200"/>
             <a:t>ArrayList&lt;Computador&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>solicitacoesComputador: ArrayList&lt;Map&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, String&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>solicitacoesManutencao: ArrayList&lt;Map&lt;String, String&gt;&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -767,59 +986,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>adicionarComputador </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>(Computador computador)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>adicionarComputador </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>(ArrayList&lt;Computador&gt; computadores)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pegarComputadoresDaInformatica() : ArrayList&lt;Computador&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -847,39 +1013,77 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>alugarComputador</a:t>
+            <a:t>adicionarComputadorNaInformatica</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR"/>
-            <a:t>(String diaParaAlugar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
+            <a:t>(Computador computador)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>adicionarComputadorNaInformatica</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR"/>
-            <a:t>String computadorId)  :  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>boolean</a:t>
+            <a:t>(ArrayList&lt;Computador&gt; computadores)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pegarComputadoresDaInformatica() : ArrayList&lt;Computador&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
             <a:solidFill>
@@ -937,7 +1141,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>solicitarManutencao (</a:t>
+            <a:t>solicitarManutencao(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR"/>
@@ -1000,73 +1204,72 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>contarEstoque()  :  int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+            <a:t>contarComputadoresNaInformatica()  :  int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>contarSolicitacoesComputador()  :  int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>contarSolicitacoesManutencao()  :  int</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1075,16 +1278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1099,8 +1302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667499" y="4514850"/>
-          <a:ext cx="3800475" cy="1685925"/>
+          <a:off x="6057901" y="4597400"/>
+          <a:ext cx="4949824" cy="1635125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1158,8 +1361,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>listaDeComputadores</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="pt-BR" sz="1200"/>
-            <a:t>computadores:</a:t>
+            <a:t>:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
@@ -1222,7 +1437,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>adicionarComputadores(ArrayList&lt;Computador&gt; lista)</a:t>
+            <a:t>adicionarComputadoresNoEstoque(ArrayList&lt;Computador&gt; lista)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
             <a:solidFill>
@@ -1262,7 +1477,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>adicionarComputadores(Informatica informatica)</a:t>
+            <a:t>adicionarComputadoresNoEstoque(Informatica informatica)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
             <a:solidFill>
@@ -1275,11 +1490,103 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>procurarComputadorNoEstoque</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200"/>
-            <a:t>pegarComputadorDoEstoque (String id)  :  Computador</a:t>
-          </a:r>
+            <a:t>(String id)  :  Computador</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>contarComputadoresNoEstoque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  :  int</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1288,15 +1595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>425451</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44452</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>22226</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1313,9 +1620,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6169026" y="2016127"/>
-          <a:ext cx="6292849" cy="196849"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6200776" y="2192338"/>
+          <a:ext cx="6318249" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1346,15 +1653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>307974</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1372,8 +1679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3498849" y="3292475"/>
-          <a:ext cx="3454400" cy="2120900"/>
+          <a:off x="3516313" y="3879851"/>
+          <a:ext cx="2541589" cy="1535113"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1402,15 +1709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1428,8 +1735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11737181" y="2807493"/>
-          <a:ext cx="1281113" cy="3819526"/>
+          <a:off x="12384882" y="2782094"/>
+          <a:ext cx="1255713" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1757,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CFBEE9-8D85-4DD3-A9B7-5D0074A72ED7}">
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" activeCellId="1" sqref="D31 D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
+++ b/Atividade versão 10/Diagrama_UML - Versão 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBerto1\..a\BERTOTI\Atividade versão 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F498C-2619-4D58-96FF-9A956F33B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FE4D73-4D11-4C27-B703-BC521E692E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83F40B39-AF77-49D9-ABD3-E7F4F43BB617}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1303,7 +1303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6057901" y="4597400"/>
-          <a:ext cx="4949824" cy="1635125"/>
+          <a:ext cx="4949824" cy="1739900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1655,13 +1655,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285752</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1679,8 +1679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3516313" y="3879851"/>
-          <a:ext cx="2541589" cy="1535113"/>
+          <a:off x="3516313" y="3879850"/>
+          <a:ext cx="2541589" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1709,15 +1709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1735,8 +1735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12384882" y="2782094"/>
-          <a:ext cx="1255713" cy="4010025"/>
+          <a:off x="12358688" y="2808288"/>
+          <a:ext cx="1308100" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CFBEE9-8D85-4DD3-A9B7-5D0074A72ED7}">
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" activeCellId="1" sqref="D31 D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
